--- a/Measurements/Results/Aluminium_Small_results.xlsx
+++ b/Measurements/Results/Aluminium_Small_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msztr\OneDrive\Documents\GitHub\VeriGudGame\Measurements\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F1DF45-5169-4024-8AC4-FB8386A310F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E31669-BD86-414F-8F6C-FEDE95A667F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,13 +148,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1896,7 +1896,7 @@
   <dimension ref="B2:U92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1907,80 +1907,80 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
